--- a/entrega/planillas/Teoría Comunicación de Datos_lempel-ziv.xlsx
+++ b/entrega/planillas/Teoría Comunicación de Datos_lempel-ziv.xlsx
@@ -43974,7 +43974,7 @@
         <v>1.32754664272174</v>
       </c>
       <c r="D2" t="n">
-        <v>0.445</v>
+        <v>0.501</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
